--- a/tests/resources/test_data.xlsx
+++ b/tests/resources/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MLDSAI\puterbot\tests\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFEDF769-6778-49E1-80CC-A04C120863BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8053BC-8D44-4CAD-81B8-2C9F12AB68A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E097B28E-71C2-49DD-8F90-CB848FE136AE}"/>
   </bookViews>
@@ -36,9 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>test_value</t>
+    <t>test_value_1</t>
+  </si>
+  <si>
+    <t>test_value_2</t>
   </si>
 </sst>
 </file>
@@ -393,7 +396,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -405,7 +408,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
